--- a/src/main/resources/templates/DistributorInvoice.xlsx
+++ b/src/main/resources/templates/DistributorInvoice.xlsx
@@ -5,19 +5,32 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wayneredmon/Developer/projects/tyler-billing/src/main/resources/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wayneredmon/Developer/projects/central-bill-invoice/src/main/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB1427D-088D-1A40-AF9E-0169DB514930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3FC746-0F90-B147-BB05-5AF883AF63CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Remittance" sheetId="1" r:id="rId1"/>
     <sheet name="Item Summary" sheetId="2" r:id="rId2"/>
     <sheet name="Invoice" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1633,6 +1646,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="1" fillId="3" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1789,13 +1809,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="86" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="1" fillId="3" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2995,12 +3008,12 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
       <c r="F1" s="3"/>
       <c r="G1" s="4" t="s">
         <v>1</v>
@@ -3010,10 +3023,10 @@
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
       <c r="F2" s="7" t="s">
         <v>2</v>
       </c>
@@ -3023,10 +3036,10 @@
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
       <c r="F3" s="7" t="s">
         <v>3</v>
       </c>
@@ -3036,10 +3049,10 @@
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
       <c r="F4" s="13"/>
       <c r="G4" s="14"/>
       <c r="H4" s="15"/>
@@ -3047,10 +3060,10 @@
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
-      <c r="B5" s="114"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="15"/>
@@ -3079,61 +3092,61 @@
       <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="138" t="s">
+      <c r="A8" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="139"/>
-      <c r="C8" s="140"/>
+      <c r="B8" s="142"/>
+      <c r="C8" s="143"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="126" t="s">
+      <c r="E8" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="127"/>
-      <c r="G8" s="128"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="131"/>
       <c r="H8" s="21"/>
       <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="141"/>
-      <c r="B9" s="142"/>
-      <c r="C9" s="142"/>
+      <c r="A9" s="144"/>
+      <c r="B9" s="145"/>
+      <c r="C9" s="145"/>
       <c r="D9" s="22"/>
-      <c r="E9" s="129" t="s">
+      <c r="E9" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="130"/>
-      <c r="G9" s="131"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="134"/>
       <c r="H9" s="21"/>
       <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="143"/>
-      <c r="B10" s="144"/>
-      <c r="C10" s="144"/>
+      <c r="A10" s="146"/>
+      <c r="B10" s="147"/>
+      <c r="C10" s="147"/>
       <c r="D10" s="22"/>
-      <c r="E10" s="135"/>
-      <c r="F10" s="136"/>
-      <c r="G10" s="137"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="140"/>
       <c r="H10" s="21"/>
       <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="143"/>
-      <c r="B11" s="145"/>
-      <c r="C11" s="145"/>
+      <c r="A11" s="146"/>
+      <c r="B11" s="148"/>
+      <c r="C11" s="148"/>
       <c r="D11" s="22"/>
-      <c r="E11" s="132" t="s">
+      <c r="E11" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="133"/>
-      <c r="G11" s="134"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="137"/>
       <c r="H11" s="21"/>
       <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="143"/>
-      <c r="B12" s="145"/>
-      <c r="C12" s="145"/>
+      <c r="A12" s="146"/>
+      <c r="B12" s="148"/>
+      <c r="C12" s="148"/>
       <c r="D12" s="23"/>
       <c r="E12" s="107"/>
       <c r="F12" s="24"/>
@@ -3142,11 +3155,11 @@
       <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="116" t="s">
+      <c r="A13" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="117"/>
-      <c r="C13" s="118"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="121"/>
       <c r="D13" s="27" t="s">
         <v>8</v>
       </c>
@@ -3167,9 +3180,9 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="119"/>
-      <c r="B14" s="120"/>
-      <c r="C14" s="121"/>
+      <c r="A14" s="122"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="124"/>
       <c r="D14" s="30"/>
       <c r="E14" s="31" t="s">
         <v>14</v>
@@ -3191,16 +3204,16 @@
       <c r="I15" s="40"/>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="122" t="s">
+      <c r="A16" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="123"/>
-      <c r="C16" s="123"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="128"/>
       <c r="I16" s="17"/>
     </row>
   </sheetData>
@@ -3240,7 +3253,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IV15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3253,10 +3268,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="41"/>
-      <c r="B1" s="156"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
       <c r="F1" s="42"/>
       <c r="G1" s="43" t="s">
         <v>16</v>
@@ -3264,10 +3279,10 @@
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="44"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
       <c r="F2" s="45" t="s">
         <v>2</v>
       </c>
@@ -3275,10 +3290,10 @@
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="44"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
       <c r="F3" s="7" t="s">
         <v>3</v>
       </c>
@@ -3286,28 +3301,28 @@
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="153"/>
-      <c r="E4" s="153"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="156"/>
+      <c r="D4" s="156"/>
+      <c r="E4" s="156"/>
       <c r="F4" s="13"/>
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
-      <c r="B5" s="114"/>
-      <c r="C5" s="153"/>
-      <c r="D5" s="153"/>
-      <c r="E5" s="153"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="156"/>
       <c r="F5" s="13"/>
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
-      <c r="B6" s="155"/>
-      <c r="C6" s="153"/>
-      <c r="D6" s="153"/>
-      <c r="E6" s="153"/>
+      <c r="B6" s="158"/>
+      <c r="C6" s="156"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="156"/>
       <c r="F6" s="13"/>
       <c r="G6" s="15"/>
     </row>
@@ -3321,38 +3336,38 @@
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="148" t="s">
+      <c r="A8" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="149"/>
-      <c r="C8" s="150"/>
+      <c r="B8" s="152"/>
+      <c r="C8" s="153"/>
       <c r="D8" s="47"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="151"/>
-      <c r="B9" s="152"/>
-      <c r="C9" s="152"/>
+      <c r="A9" s="154"/>
+      <c r="B9" s="155"/>
+      <c r="C9" s="155"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="143"/>
-      <c r="B10" s="153"/>
-      <c r="C10" s="153"/>
+      <c r="A10" s="146"/>
+      <c r="B10" s="156"/>
+      <c r="C10" s="156"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="143"/>
-      <c r="B11" s="153"/>
-      <c r="C11" s="153"/>
+      <c r="A11" s="146"/>
+      <c r="B11" s="156"/>
+      <c r="C11" s="156"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -3360,8 +3375,8 @@
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="108"/>
-      <c r="B12" s="154"/>
-      <c r="C12" s="154"/>
+      <c r="B12" s="157"/>
+      <c r="C12" s="157"/>
       <c r="D12" s="48"/>
       <c r="E12" s="48"/>
       <c r="F12" s="48"/>
@@ -3371,10 +3386,10 @@
       <c r="A13" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="146" t="s">
+      <c r="B13" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="147"/>
+      <c r="C13" s="150"/>
       <c r="D13" s="51" t="s">
         <v>10</v>
       </c>
@@ -3442,9 +3457,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV23"/>
+  <dimension ref="A1:IV22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="133" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="133" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3461,10 +3478,10 @@
   <sheetData>
     <row r="1" spans="1:256" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="41"/>
-      <c r="B1" s="156"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="113"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="116"/>
       <c r="F1" s="59"/>
       <c r="G1" s="4" t="s">
         <v>8</v>
@@ -3482,10 +3499,10 @@
     </row>
     <row r="2" spans="1:256" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="44"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="115"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="118"/>
       <c r="F2" s="7" t="s">
         <v>2</v>
       </c>
@@ -3503,10 +3520,10 @@
     </row>
     <row r="3" spans="1:256" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="44"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="115"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="118"/>
       <c r="F3" s="7" t="s">
         <v>21</v>
       </c>
@@ -3524,10 +3541,10 @@
     </row>
     <row r="4" spans="1:256" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="44"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="153"/>
-      <c r="E4" s="115"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="156"/>
+      <c r="E4" s="118"/>
       <c r="F4" s="7" t="s">
         <v>3</v>
       </c>
@@ -3545,10 +3562,10 @@
     </row>
     <row r="5" spans="1:256" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="44"/>
-      <c r="B5" s="114"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="153"/>
-      <c r="E5" s="115"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="118"/>
       <c r="F5" s="13"/>
       <c r="G5" s="14"/>
       <c r="H5" s="66"/>
@@ -3561,276 +3578,278 @@
       <c r="O5" s="68"/>
     </row>
     <row r="6" spans="1:256" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
-      <c r="B6" s="114"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="153"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="66"/>
       <c r="I6" s="65"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
       <c r="N6" s="67"/>
       <c r="O6" s="69"/>
     </row>
     <row r="7" spans="1:256" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="67"/>
+      <c r="A7" s="151" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="161"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="151" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="161"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="164"/>
+      <c r="N7" s="47"/>
       <c r="O7" s="69"/>
     </row>
     <row r="8" spans="1:256" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="148" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="158"/>
-      <c r="C8" s="159"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="148" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="158"/>
-      <c r="G8" s="159"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="148" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="160"/>
-      <c r="L8" s="160"/>
-      <c r="M8" s="161"/>
-      <c r="N8" s="47"/>
+      <c r="A8" s="154"/>
+      <c r="B8" s="165"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="167"/>
+      <c r="K8" s="168"/>
+      <c r="L8" s="168"/>
+      <c r="M8" s="168"/>
+      <c r="N8" s="67"/>
       <c r="O8" s="69"/>
     </row>
     <row r="9" spans="1:256" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="151"/>
-      <c r="B9" s="162"/>
-      <c r="C9" s="162"/>
+      <c r="A9" s="146"/>
+      <c r="B9" s="147"/>
+      <c r="C9" s="147"/>
       <c r="D9" s="23"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="162"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="148"/>
       <c r="H9" s="66"/>
       <c r="I9" s="65"/>
-      <c r="J9" s="164"/>
-      <c r="K9" s="165"/>
-      <c r="L9" s="165"/>
-      <c r="M9" s="165"/>
+      <c r="J9" s="170"/>
+      <c r="K9" s="171"/>
+      <c r="L9" s="171"/>
+      <c r="M9" s="171"/>
       <c r="N9" s="67"/>
       <c r="O9" s="69"/>
     </row>
     <row r="10" spans="1:256" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="143"/>
-      <c r="B10" s="144"/>
-      <c r="C10" s="144"/>
+      <c r="A10" s="146"/>
+      <c r="B10" s="148"/>
+      <c r="C10" s="148"/>
       <c r="D10" s="23"/>
-      <c r="E10" s="166"/>
-      <c r="F10" s="145"/>
-      <c r="G10" s="145"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="148"/>
       <c r="H10" s="66"/>
       <c r="I10" s="65"/>
-      <c r="J10" s="167"/>
-      <c r="K10" s="168"/>
-      <c r="L10" s="168"/>
-      <c r="M10" s="168"/>
+      <c r="J10" s="170"/>
+      <c r="K10" s="171"/>
+      <c r="L10" s="171"/>
+      <c r="M10" s="171"/>
       <c r="N10" s="67"/>
       <c r="O10" s="69"/>
     </row>
     <row r="11" spans="1:256" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="143"/>
-      <c r="B11" s="145"/>
-      <c r="C11" s="145"/>
+      <c r="A11" s="146"/>
+      <c r="B11" s="148"/>
+      <c r="C11" s="148"/>
       <c r="D11" s="23"/>
-      <c r="E11" s="166"/>
-      <c r="F11" s="145"/>
-      <c r="G11" s="145"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="148"/>
       <c r="H11" s="66"/>
       <c r="I11" s="65"/>
-      <c r="J11" s="167"/>
-      <c r="K11" s="168"/>
-      <c r="L11" s="168"/>
-      <c r="M11" s="168"/>
+      <c r="J11" s="170"/>
+      <c r="K11" s="171"/>
+      <c r="L11" s="171"/>
+      <c r="M11" s="171"/>
       <c r="N11" s="67"/>
       <c r="O11" s="69"/>
     </row>
     <row r="12" spans="1:256" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="143"/>
-      <c r="B12" s="145"/>
-      <c r="C12" s="145"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="166"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="145"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="66"/>
       <c r="I12" s="65"/>
-      <c r="J12" s="167"/>
-      <c r="K12" s="168"/>
-      <c r="L12" s="168"/>
-      <c r="M12" s="168"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="69"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:256" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="25"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="15"/>
+      <c r="A13" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="172"/>
+      <c r="C13" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="174" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="175"/>
+      <c r="G13" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="71"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="173"/>
+      <c r="K13" s="173"/>
+      <c r="L13" s="75"/>
+      <c r="IT13"/>
+      <c r="IU13"/>
+      <c r="IV13"/>
     </row>
     <row r="14" spans="1:256" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="169"/>
-      <c r="C14" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="73" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="171" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="172"/>
-      <c r="G14" s="74" t="s">
-        <v>27</v>
-      </c>
+      <c r="A14" s="176"/>
+      <c r="B14" s="177"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="183"/>
+      <c r="F14" s="184"/>
+      <c r="G14" s="78"/>
       <c r="H14" s="71"/>
       <c r="I14" s="109"/>
-      <c r="J14" s="170"/>
-      <c r="K14" s="170"/>
+      <c r="J14" s="173"/>
+      <c r="K14" s="173"/>
       <c r="L14" s="75"/>
       <c r="IT14"/>
       <c r="IU14"/>
       <c r="IV14"/>
     </row>
-    <row r="15" spans="1:256" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="173"/>
-      <c r="B15" s="174"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="180"/>
-      <c r="F15" s="181"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="109"/>
-      <c r="J15" s="170"/>
-      <c r="K15" s="170"/>
-      <c r="L15" s="75"/>
-      <c r="IT15"/>
-      <c r="IU15"/>
-      <c r="IV15"/>
-    </row>
-    <row r="16" spans="1:256" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="79"/>
-      <c r="B16" s="176"/>
-      <c r="C16" s="177"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="111"/>
-      <c r="K16" s="178"/>
-      <c r="L16" s="179"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="110"/>
-    </row>
-    <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="84" t="s">
+    <row r="15" spans="1:256" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="79"/>
+      <c r="B15" s="179"/>
+      <c r="C15" s="180"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="181"/>
+      <c r="L15" s="182"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="110"/>
+    </row>
+    <row r="16" spans="1:256" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="175" t="s">
+      <c r="B16" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="118"/>
-      <c r="D17" s="27" t="s">
+      <c r="C16" s="121"/>
+      <c r="D16" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E16" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F16" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="85" t="s">
+      <c r="G16" s="85" t="s">
         <v>12</v>
       </c>
+      <c r="H16" s="71"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="149" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="178"/>
+      <c r="M16" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="N16" s="113" t="s">
+        <v>11</v>
+      </c>
+      <c r="O16" s="112"/>
+    </row>
+    <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="87"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="89"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="91" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="92"/>
       <c r="H17" s="71"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="84" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="146" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="175"/>
-      <c r="M17" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="N17" s="183" t="s">
-        <v>11</v>
-      </c>
-      <c r="O17" s="182"/>
-    </row>
-    <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="87"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="89"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="91" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="92"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="95" t="s">
+      <c r="I17" s="65"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="M18" s="96"/>
-      <c r="N18" s="184"/>
-      <c r="O18" s="182"/>
-    </row>
-    <row r="19" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M17" s="96"/>
+      <c r="N17" s="114"/>
+      <c r="O17" s="112"/>
+    </row>
+    <row r="18" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="98"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="110"/>
+    </row>
+    <row r="19" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="13"/>
       <c r="F19" s="97" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G19" s="98"/>
       <c r="H19" s="99"/>
@@ -3839,8 +3858,8 @@
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="110"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="15"/>
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
@@ -3849,7 +3868,7 @@
       <c r="D20" s="101"/>
       <c r="E20" s="13"/>
       <c r="F20" s="97" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G20" s="98"/>
       <c r="H20" s="99"/>
@@ -3861,16 +3880,16 @@
       <c r="N20" s="13"/>
       <c r="O20" s="15"/>
     </row>
-    <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
-      <c r="D21" s="101"/>
+      <c r="D21" s="13"/>
       <c r="E21" s="13"/>
-      <c r="F21" s="97" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="98"/>
+      <c r="F21" s="102" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="103"/>
       <c r="H21" s="99"/>
       <c r="I21" s="100"/>
       <c r="J21" s="13"/>
@@ -3881,76 +3900,56 @@
       <c r="O21" s="15"/>
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="102" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="103"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="15"/>
-    </row>
-    <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="104"/>
-      <c r="B23" s="105"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="10"/>
+      <c r="A22" s="104"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="J12:M12"/>
+  <mergeCells count="30">
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="J14:K14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="K15:L15"/>
     <mergeCell ref="E14:F14"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="J9:M9"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="J10:M10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="J7:M7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="J8:M8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="J9:M9"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D16:E16 G16 M16:N16 D18:E18 G18:G22 M18:N18">
+  <conditionalFormatting sqref="D15:E15 G15 M15:N15 D17:E17 G17:G21 M17:N17">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
